--- a/Testing/data/sphere/optimize.xlsx
+++ b/Testing/data/sphere/optimize.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26709"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11108"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amorris/sci/shapeworks/code/Testing/data/sphere/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D185B4C-509B-E54F-9F6A-FE8B5CA319DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="15540" windowHeight="17460" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -14,12 +20,12 @@
     <sheet name="studio" sheetId="5" r:id="rId5"/>
     <sheet name="project" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150000"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="65">
   <si>
     <t>segmentation_file</t>
   </si>
@@ -115,9 +121,6 @@
   </si>
   <si>
     <t>number_of_particles</t>
-  </si>
-  <si>
-    <t>128</t>
   </si>
   <si>
     <t>optimization_iterations</t>
@@ -226,8 +229,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -264,6 +267,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -529,66 +540,68 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:E1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" t="s">
         <v>60</v>
       </c>
-      <c r="C3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" t="s">
         <v>62</v>
       </c>
-      <c r="C4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" t="s">
         <v>64</v>
-      </c>
-      <c r="C5" t="s">
-        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -597,11 +610,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B11"/>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -609,7 +625,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -617,7 +633,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -625,7 +641,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -633,7 +649,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -641,7 +657,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -649,7 +665,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -657,7 +673,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -665,7 +681,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -673,7 +689,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -681,7 +697,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -690,15 +706,24 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B15"/>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="22.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -706,15 +731,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>20</v>
       </c>
-      <c r="B2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="B2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -722,7 +747,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -730,7 +755,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -738,7 +763,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -746,7 +771,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -754,80 +779,84 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>31</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8">
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>34</v>
       </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="B11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
+      <c r="B12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>37</v>
-      </c>
-      <c r="B12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>38</v>
       </c>
       <c r="B13" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>39</v>
       </c>
-      <c r="B14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>40</v>
-      </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B4"/>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -835,40 +864,44 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" t="s">
         <v>41</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
         <v>43</v>
       </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
         <v>45</v>
       </c>
-      <c r="B4" t="s">
-        <v>46</v>
-      </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B5"/>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -876,48 +909,52 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" t="s">
         <v>47</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
         <v>49</v>
       </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
         <v>51</v>
       </c>
-      <c r="B4" t="s">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>53</v>
-      </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:B2"/>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -925,14 +962,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" t="s">
         <v>54</v>
       </c>
-      <c r="B2" t="s">
-        <v>55</v>
-      </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Testing/data/sphere/optimize.xlsx
+++ b/Testing/data/sphere/optimize.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amorris/sci/shapeworks/code/Testing/data/sphere/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D185B4C-509B-E54F-9F6A-FE8B5CA319DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53D76413-EBFA-8445-927B-667E6D988750}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="15540" windowHeight="17460" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,12 +20,12 @@
     <sheet name="studio" sheetId="5" r:id="rId5"/>
     <sheet name="project" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="150000"/>
+  <calcPr calcId="150000" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="75">
   <si>
     <t>segmentation_file</t>
   </si>
@@ -224,6 +224,36 @@
   </si>
   <si>
     <t xml:space="preserve"> 1.000000 0.000000 0.000000 0.000000 1.000000 0.000000 0.000000 0.000000 1.000000 -0.000149 -0.000149 -0.000149</t>
+  </si>
+  <si>
+    <t>local_particles</t>
+  </si>
+  <si>
+    <t>sphere10_DT_local.particles</t>
+  </si>
+  <si>
+    <t>world_particles</t>
+  </si>
+  <si>
+    <t>sphere10_DT_world.particles</t>
+  </si>
+  <si>
+    <t>sphere20_DT_local.particles</t>
+  </si>
+  <si>
+    <t>sphere20_DT_world.particles</t>
+  </si>
+  <si>
+    <t>sphere30_DT_local.particles</t>
+  </si>
+  <si>
+    <t>sphere30_DT_world.particles</t>
+  </si>
+  <si>
+    <t>sphere40_DT_local.particles</t>
+  </si>
+  <si>
+    <t>sphere40_DT_world.particles</t>
   </si>
 </sst>
 </file>
@@ -541,7 +571,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1:E1048576"/>
@@ -549,7 +579,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -559,8 +589,14 @@
       <c r="C1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -570,8 +606,14 @@
       <c r="C2" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -581,8 +623,14 @@
       <c r="C3" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -592,8 +640,14 @@
       <c r="C4" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -602,6 +656,12 @@
       </c>
       <c r="C5" t="s">
         <v>64</v>
+      </c>
+      <c r="D5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E5" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -715,7 +775,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -743,8 +803,8 @@
       <c r="A3" t="s">
         <v>22</v>
       </c>
-      <c r="B3" t="s">
-        <v>21</v>
+      <c r="B3">
+        <v>0.05</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">

--- a/Testing/data/sphere/optimize.xlsx
+++ b/Testing/data/sphere/optimize.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amorris/sci/shapeworks/code/Testing/data/sphere/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53D76413-EBFA-8445-927B-667E6D988750}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A28BC832-D6B9-E548-823C-636418FBD500}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="15540" windowHeight="17460" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="15540" windowHeight="17460" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="65">
   <si>
     <t>segmentation_file</t>
   </si>
@@ -224,36 +224,6 @@
   </si>
   <si>
     <t xml:space="preserve"> 1.000000 0.000000 0.000000 0.000000 1.000000 0.000000 0.000000 0.000000 1.000000 -0.000149 -0.000149 -0.000149</t>
-  </si>
-  <si>
-    <t>local_particles</t>
-  </si>
-  <si>
-    <t>sphere10_DT_local.particles</t>
-  </si>
-  <si>
-    <t>world_particles</t>
-  </si>
-  <si>
-    <t>sphere10_DT_world.particles</t>
-  </si>
-  <si>
-    <t>sphere20_DT_local.particles</t>
-  </si>
-  <si>
-    <t>sphere20_DT_world.particles</t>
-  </si>
-  <si>
-    <t>sphere30_DT_local.particles</t>
-  </si>
-  <si>
-    <t>sphere30_DT_world.particles</t>
-  </si>
-  <si>
-    <t>sphere40_DT_local.particles</t>
-  </si>
-  <si>
-    <t>sphere40_DT_world.particles</t>
   </si>
 </sst>
 </file>
@@ -571,15 +541,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D1" sqref="D1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -589,14 +559,8 @@
       <c r="C1" t="s">
         <v>57</v>
       </c>
-      <c r="D1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -606,14 +570,8 @@
       <c r="C2" t="s">
         <v>58</v>
       </c>
-      <c r="D2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -623,14 +581,8 @@
       <c r="C3" t="s">
         <v>60</v>
       </c>
-      <c r="D3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -640,14 +592,8 @@
       <c r="C4" t="s">
         <v>62</v>
       </c>
-      <c r="D4" t="s">
-        <v>71</v>
-      </c>
-      <c r="E4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -656,12 +602,6 @@
       </c>
       <c r="C5" t="s">
         <v>64</v>
-      </c>
-      <c r="D5" t="s">
-        <v>73</v>
-      </c>
-      <c r="E5" t="s">
-        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -774,7 +714,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
